--- a/doc/外部設計書/外部設計書_F2_fireworks_PWリセット.xlsx
+++ b/doc/外部設計書/外部設計書_F2_fireworks_PWリセット.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAA1544-BE15-4DAF-B08A-110DA5086430}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD46405-14D8-456F-9EFB-C2AA31CBE3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -195,6 +195,176 @@
     <t>memoly</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>next</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>background_img</t>
+  </si>
+  <si>
+    <t>次へ</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>戻る</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>秘密の質問</t>
+    <rPh sb="0" eb="2">
+      <t>ヒミツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>秘密の質問の解答</t>
+    <rPh sb="0" eb="2">
+      <t>ヒミツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>新パスワード</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>確認用パスワード</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>登録</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>背景</t>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>check_password</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Image</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>submit</t>
+  </si>
+  <si>
+    <t>submit</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Select</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>IDPW</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>PW</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プルダウンメニュー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>secret_question</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>answer</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ANSWER</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>USER</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>QUESTION</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>option</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -203,7 +373,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -247,6 +417,12 @@
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF111111"/>
+      <name val="Roboto"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -568,7 +744,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -618,24 +794,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -666,9 +824,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -687,12 +842,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1023,8 +1200,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="735219" y="2538587"/>
-          <a:ext cx="1478643" cy="494380"/>
+          <a:off x="730840" y="2433097"/>
+          <a:ext cx="1465505" cy="478151"/>
           <a:chOff x="1124857" y="2911929"/>
           <a:chExt cx="1478643" cy="498928"/>
         </a:xfrm>
@@ -1389,8 +1566,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3009900" y="2613959"/>
-          <a:ext cx="1573893" cy="487348"/>
+          <a:off x="2985814" y="2508469"/>
+          <a:ext cx="1558565" cy="471119"/>
           <a:chOff x="1029607" y="2930979"/>
           <a:chExt cx="1573893" cy="479878"/>
         </a:xfrm>
@@ -1884,8 +2061,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5451022" y="2620309"/>
-          <a:ext cx="1680028" cy="506399"/>
+          <a:off x="5405039" y="2514819"/>
+          <a:ext cx="1664701" cy="482055"/>
           <a:chOff x="1055007" y="2911929"/>
           <a:chExt cx="1680028" cy="498928"/>
         </a:xfrm>
@@ -2021,8 +2198,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5444672" y="3093037"/>
-          <a:ext cx="1940378" cy="494820"/>
+          <a:off x="5398689" y="2971318"/>
+          <a:ext cx="1922861" cy="470476"/>
           <a:chOff x="1042307" y="2936825"/>
           <a:chExt cx="1940378" cy="474032"/>
         </a:xfrm>
@@ -3225,6 +3402,461 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209176</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>164352</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>66507</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>146538</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A19F7D0B-4293-4253-AC70-9AC076490C35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="461548" y="5968903"/>
+          <a:ext cx="6923741" cy="5786738"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>次へ」クリック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>入力した</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>がデーターベースに存在した場合、秘密の質問画面に遷移する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>データーベースに存在しない場合、モーダルウィンドウでエラーメッセージを表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>戻る」クリック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ログインページに遷移する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>▼」クリック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>プルダウンで秘密の質問を選択</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>6 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>次へ」クリック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>および入力した秘密の質問と解答が一致していれば、新パスワード設定画面に遷移する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>データーベースに存在しない場合、モーダルウィンドウでエラーメッセージを表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>7 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>戻る」クリック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>パスワード再登録の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>入力画面に遷移する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>10 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>登録」クリック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>登録完了画面に遷移する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>登録条件を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>満たさ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ない場合、エラーメッセージを表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>11 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ログイン画面へ」クリック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ログイン画面に遷移する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>46354</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>42239</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>171725</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>162247</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06950E1B-FEDC-992E-56FD-BADC49B26886}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2065328" y="1165701"/>
+          <a:ext cx="882487" cy="494495"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>12</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3549,10 +4181,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN99"/>
+  <dimension ref="A1:AN100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+    <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="U79" sqref="U79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3561,158 +4193,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="34" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34" t="s">
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34" t="s">
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34" t="s">
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="35" t="s">
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="19" t="s">
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="20"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="36"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="21" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21" t="s">
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21" t="s">
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="42">
+      <c r="X2" s="37"/>
+      <c r="Y2" s="38">
         <v>45083</v>
       </c>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="22" t="s">
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="43">
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="40">
         <v>45083</v>
       </c>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="24"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="42"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="36" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="37"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="40"/>
-      <c r="AK3" s="40"/>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="40"/>
-      <c r="AN3" s="41"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="33"/>
+      <c r="AG3" s="33"/>
+      <c r="AH3" s="33"/>
+      <c r="AI3" s="33"/>
+      <c r="AJ3" s="33"/>
+      <c r="AK3" s="33"/>
+      <c r="AL3" s="33"/>
+      <c r="AM3" s="33"/>
+      <c r="AN3" s="34"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -6358,31 +6990,49 @@
     <row r="69" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="6"/>
       <c r="B69" s="12"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="14"/>
+      <c r="C69" s="13">
+        <v>1</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>24</v>
+      </c>
       <c r="E69" s="15"/>
       <c r="F69" s="15"/>
       <c r="G69" s="13"/>
-      <c r="H69" s="14"/>
+      <c r="H69" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="I69" s="16"/>
       <c r="J69" s="15"/>
       <c r="K69" s="17"/>
-      <c r="L69" s="14"/>
+      <c r="L69" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="M69" s="15"/>
       <c r="N69" s="17"/>
-      <c r="O69" s="14"/>
+      <c r="O69" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="P69" s="15"/>
       <c r="Q69" s="15"/>
       <c r="R69" s="17"/>
-      <c r="S69" s="14"/>
+      <c r="S69" s="14">
+        <v>8</v>
+      </c>
       <c r="T69" s="17"/>
-      <c r="U69" s="14"/>
+      <c r="U69" s="14">
+        <v>20</v>
+      </c>
       <c r="V69" s="17"/>
-      <c r="W69" s="14"/>
+      <c r="W69" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="X69" s="15"/>
       <c r="Y69" s="15"/>
       <c r="Z69" s="17"/>
-      <c r="AA69" s="14"/>
+      <c r="AA69" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="AB69" s="15"/>
       <c r="AC69" s="17"/>
       <c r="AD69" s="14"/>
@@ -6400,19 +7050,29 @@
     <row r="70" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="6"/>
       <c r="B70" s="12"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="14"/>
+      <c r="C70" s="13">
+        <v>2</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>25</v>
+      </c>
       <c r="E70" s="15"/>
       <c r="F70" s="15"/>
       <c r="G70" s="13"/>
-      <c r="H70" s="14"/>
+      <c r="H70" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="I70" s="16"/>
       <c r="J70" s="15"/>
       <c r="K70" s="17"/>
-      <c r="L70" s="14"/>
+      <c r="L70" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="M70" s="15"/>
       <c r="N70" s="17"/>
-      <c r="O70" s="14"/>
+      <c r="O70" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="P70" s="15"/>
       <c r="Q70" s="15"/>
       <c r="R70" s="17"/>
@@ -6442,16 +7102,24 @@
     <row r="71" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="6"/>
       <c r="B71" s="12"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="14"/>
+      <c r="C71" s="13">
+        <v>3</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="E71" s="15"/>
       <c r="F71" s="15"/>
       <c r="G71" s="13"/>
-      <c r="H71" s="14"/>
+      <c r="H71" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="I71" s="16"/>
       <c r="J71" s="15"/>
       <c r="K71" s="17"/>
-      <c r="L71" s="14"/>
+      <c r="L71" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="M71" s="15"/>
       <c r="N71" s="17"/>
       <c r="O71" s="14"/>
@@ -6484,19 +7152,29 @@
     <row r="72" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6"/>
       <c r="B72" s="12"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="14"/>
+      <c r="C72" s="13">
+        <v>4</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="E72" s="15"/>
       <c r="F72" s="15"/>
       <c r="G72" s="13"/>
-      <c r="H72" s="14"/>
+      <c r="H72" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="I72" s="16"/>
       <c r="J72" s="15"/>
       <c r="K72" s="17"/>
-      <c r="L72" s="14"/>
+      <c r="L72" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="M72" s="15"/>
       <c r="N72" s="17"/>
-      <c r="O72" s="14"/>
+      <c r="O72" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="P72" s="15"/>
       <c r="Q72" s="15"/>
       <c r="R72" s="17"/>
@@ -6504,14 +7182,20 @@
       <c r="T72" s="17"/>
       <c r="U72" s="14"/>
       <c r="V72" s="17"/>
-      <c r="W72" s="14"/>
+      <c r="W72" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="X72" s="15"/>
       <c r="Y72" s="15"/>
       <c r="Z72" s="17"/>
-      <c r="AA72" s="14"/>
+      <c r="AA72" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="AB72" s="15"/>
       <c r="AC72" s="17"/>
-      <c r="AD72" s="14"/>
+      <c r="AD72" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="AE72" s="15"/>
       <c r="AF72" s="15"/>
       <c r="AG72" s="15"/>
@@ -6526,31 +7210,49 @@
     <row r="73" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6"/>
       <c r="B73" s="12"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="14"/>
+      <c r="C73" s="13">
+        <v>5</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="E73" s="15"/>
       <c r="F73" s="15"/>
       <c r="G73" s="13"/>
-      <c r="H73" s="14"/>
+      <c r="H73" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="I73" s="16"/>
       <c r="J73" s="15"/>
       <c r="K73" s="17"/>
-      <c r="L73" s="14"/>
+      <c r="L73" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="M73" s="15"/>
       <c r="N73" s="17"/>
-      <c r="O73" s="14"/>
+      <c r="O73" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="P73" s="15"/>
       <c r="Q73" s="15"/>
       <c r="R73" s="17"/>
-      <c r="S73" s="14"/>
+      <c r="S73" s="14">
+        <v>1</v>
+      </c>
       <c r="T73" s="17"/>
-      <c r="U73" s="14"/>
+      <c r="U73" s="14">
+        <v>20</v>
+      </c>
       <c r="V73" s="17"/>
-      <c r="W73" s="14"/>
+      <c r="W73" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="X73" s="15"/>
       <c r="Y73" s="15"/>
       <c r="Z73" s="17"/>
-      <c r="AA73" s="14"/>
+      <c r="AA73" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="AB73" s="15"/>
       <c r="AC73" s="17"/>
       <c r="AD73" s="14"/>
@@ -6568,7 +7270,9 @@
     <row r="74" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6"/>
       <c r="B74" s="12"/>
-      <c r="C74" s="13"/>
+      <c r="C74" s="13">
+        <v>6</v>
+      </c>
       <c r="D74" s="14"/>
       <c r="E74" s="15"/>
       <c r="F74" s="15"/>
@@ -6610,7 +7314,9 @@
     <row r="75" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="6"/>
       <c r="B75" s="12"/>
-      <c r="C75" s="13"/>
+      <c r="C75" s="13">
+        <v>7</v>
+      </c>
       <c r="D75" s="14"/>
       <c r="E75" s="15"/>
       <c r="F75" s="15"/>
@@ -6652,31 +7358,49 @@
     <row r="76" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="6"/>
       <c r="B76" s="12"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="14"/>
+      <c r="C76" s="13">
+        <v>8</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>38</v>
+      </c>
       <c r="E76" s="15"/>
       <c r="F76" s="15"/>
       <c r="G76" s="13"/>
-      <c r="H76" s="14"/>
+      <c r="H76" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="I76" s="16"/>
       <c r="J76" s="15"/>
       <c r="K76" s="17"/>
-      <c r="L76" s="14"/>
+      <c r="L76" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="M76" s="15"/>
       <c r="N76" s="17"/>
-      <c r="O76" s="14"/>
+      <c r="O76" s="14" t="s">
+        <v>43</v>
+      </c>
       <c r="P76" s="15"/>
       <c r="Q76" s="15"/>
       <c r="R76" s="17"/>
-      <c r="S76" s="14"/>
+      <c r="S76" s="14">
+        <v>8</v>
+      </c>
       <c r="T76" s="17"/>
-      <c r="U76" s="14"/>
+      <c r="U76" s="14">
+        <v>20</v>
+      </c>
       <c r="V76" s="17"/>
-      <c r="W76" s="14"/>
+      <c r="W76" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="X76" s="15"/>
       <c r="Y76" s="15"/>
       <c r="Z76" s="17"/>
-      <c r="AA76" s="14"/>
+      <c r="AA76" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="AB76" s="15"/>
       <c r="AC76" s="17"/>
       <c r="AD76" s="14"/>
@@ -6691,34 +7415,52 @@
       <c r="AM76" s="18"/>
       <c r="AN76" s="7"/>
     </row>
-    <row r="77" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6"/>
       <c r="B77" s="12"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="14"/>
+      <c r="C77" s="13">
+        <v>9</v>
+      </c>
+      <c r="D77" s="44" t="s">
+        <v>39</v>
+      </c>
       <c r="E77" s="15"/>
       <c r="F77" s="15"/>
       <c r="G77" s="13"/>
-      <c r="H77" s="14"/>
+      <c r="H77" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="I77" s="16"/>
       <c r="J77" s="15"/>
       <c r="K77" s="17"/>
-      <c r="L77" s="14"/>
+      <c r="L77" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="M77" s="15"/>
       <c r="N77" s="17"/>
-      <c r="O77" s="14"/>
+      <c r="O77" s="14" t="s">
+        <v>43</v>
+      </c>
       <c r="P77" s="15"/>
       <c r="Q77" s="15"/>
       <c r="R77" s="17"/>
-      <c r="S77" s="14"/>
+      <c r="S77" s="14">
+        <v>8</v>
+      </c>
       <c r="T77" s="17"/>
-      <c r="U77" s="14"/>
+      <c r="U77" s="14">
+        <v>20</v>
+      </c>
       <c r="V77" s="17"/>
-      <c r="W77" s="14"/>
+      <c r="W77" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="X77" s="15"/>
       <c r="Y77" s="15"/>
       <c r="Z77" s="17"/>
-      <c r="AA77" s="14"/>
+      <c r="AA77" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="AB77" s="15"/>
       <c r="AC77" s="17"/>
       <c r="AD77" s="14"/>
@@ -6733,22 +7475,32 @@
       <c r="AM77" s="18"/>
       <c r="AN77" s="7"/>
     </row>
-    <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
       <c r="B78" s="12"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="14"/>
+      <c r="C78" s="13">
+        <v>10</v>
+      </c>
+      <c r="D78" s="44" t="s">
+        <v>27</v>
+      </c>
       <c r="E78" s="15"/>
       <c r="F78" s="15"/>
       <c r="G78" s="13"/>
-      <c r="H78" s="14"/>
+      <c r="H78" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="I78" s="16"/>
       <c r="J78" s="15"/>
       <c r="K78" s="17"/>
-      <c r="L78" s="14"/>
+      <c r="L78" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="M78" s="15"/>
       <c r="N78" s="17"/>
-      <c r="O78" s="14"/>
+      <c r="O78" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="P78" s="15"/>
       <c r="Q78" s="15"/>
       <c r="R78" s="17"/>
@@ -6778,16 +7530,24 @@
     <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="6"/>
       <c r="B79" s="12"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="14"/>
+      <c r="C79" s="13">
+        <v>11</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="E79" s="15"/>
       <c r="F79" s="15"/>
       <c r="G79" s="13"/>
-      <c r="H79" s="14"/>
+      <c r="H79" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="I79" s="16"/>
       <c r="J79" s="15"/>
       <c r="K79" s="17"/>
-      <c r="L79" s="14"/>
+      <c r="L79" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="M79" s="15"/>
       <c r="N79" s="17"/>
       <c r="O79" s="14"/>
@@ -6820,16 +7580,24 @@
     <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6"/>
       <c r="B80" s="12"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="14"/>
+      <c r="C80" s="13">
+        <v>12</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
       <c r="G80" s="13"/>
-      <c r="H80" s="14"/>
+      <c r="H80" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="I80" s="16"/>
       <c r="J80" s="15"/>
       <c r="K80" s="17"/>
-      <c r="L80" s="14"/>
+      <c r="L80" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="M80" s="15"/>
       <c r="N80" s="17"/>
       <c r="O80" s="14"/>
@@ -6862,7 +7630,9 @@
     <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6"/>
       <c r="B81" s="12"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>13</v>
+      </c>
       <c r="D81" s="14"/>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
@@ -6904,7 +7674,9 @@
     <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6"/>
       <c r="B82" s="12"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>14</v>
+      </c>
       <c r="D82" s="14"/>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
@@ -6946,7 +7718,9 @@
     <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
       <c r="B83" s="12"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>15</v>
+      </c>
       <c r="D83" s="14"/>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
@@ -6988,7 +7762,9 @@
     <row r="84" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="6"/>
       <c r="B84" s="12"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>16</v>
+      </c>
       <c r="D84" s="14"/>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
@@ -7030,7 +7806,9 @@
     <row r="85" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="6"/>
       <c r="B85" s="12"/>
-      <c r="C85" s="13"/>
+      <c r="C85" s="13">
+        <v>17</v>
+      </c>
       <c r="D85" s="14"/>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
@@ -7072,7 +7850,9 @@
     <row r="86" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="6"/>
       <c r="B86" s="12"/>
-      <c r="C86" s="13"/>
+      <c r="C86" s="13">
+        <v>18</v>
+      </c>
       <c r="D86" s="14"/>
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
@@ -7617,7 +8397,7 @@
     </row>
     <row r="99" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="9"/>
-      <c r="B99" s="10"/>
+      <c r="B99" s="12"/>
       <c r="C99" s="10"/>
       <c r="D99" s="10"/>
       <c r="E99" s="10"/>
@@ -7657,6 +8437,9 @@
       <c r="AM99" s="10"/>
       <c r="AN99" s="11"/>
     </row>
+    <row r="100" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B100" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="A1:J3"/>

--- a/doc/外部設計書/外部設計書_F2_fireworks_PWリセット.xlsx
+++ b/doc/外部設計書/外部設計書_F2_fireworks_PWリセット.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD46405-14D8-456F-9EFB-C2AA31CBE3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61666E9F-8238-42B8-8EDB-FDA0675C7A46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -304,14 +304,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Select</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>IDPW</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>PW</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -340,10 +332,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>QUESTION</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>varchar</t>
   </si>
   <si>
@@ -363,6 +351,20 @@
     <rPh sb="4" eb="6">
       <t>ガメン</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>南</t>
+    <rPh sb="0" eb="1">
+      <t>ミナミ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>select</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -794,6 +796,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -869,7 +872,6 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1200,8 +1202,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="730840" y="2433097"/>
-          <a:ext cx="1465505" cy="478151"/>
+          <a:off x="735219" y="2538587"/>
+          <a:ext cx="1478643" cy="494380"/>
           <a:chOff x="1124857" y="2911929"/>
           <a:chExt cx="1478643" cy="498928"/>
         </a:xfrm>
@@ -1566,8 +1568,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2985814" y="2508469"/>
-          <a:ext cx="1558565" cy="471119"/>
+          <a:off x="3009900" y="2613959"/>
+          <a:ext cx="1573893" cy="487348"/>
           <a:chOff x="1029607" y="2930979"/>
           <a:chExt cx="1573893" cy="479878"/>
         </a:xfrm>
@@ -2061,8 +2063,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5405039" y="2514819"/>
-          <a:ext cx="1664701" cy="482055"/>
+          <a:off x="5451022" y="2620309"/>
+          <a:ext cx="1680028" cy="506399"/>
           <a:chOff x="1055007" y="2911929"/>
           <a:chExt cx="1680028" cy="498928"/>
         </a:xfrm>
@@ -2198,8 +2200,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5398689" y="2971318"/>
-          <a:ext cx="1922861" cy="470476"/>
+          <a:off x="5444672" y="3093037"/>
+          <a:ext cx="1940378" cy="494820"/>
           <a:chOff x="1042307" y="2936825"/>
           <a:chExt cx="1940378" cy="474032"/>
         </a:xfrm>
@@ -3622,6 +3624,82 @@
             </a:rPr>
             <a:t>データーベースに存在しない場合、モーダルウィンドウでエラーメッセージを表示</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>データベースの</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>PW</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>を消去する</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
@@ -4183,8 +4261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="U79" sqref="U79"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L75" sqref="L75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4193,158 +4271,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="28" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28" t="s">
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28" t="s">
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28" t="s">
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="43" t="s">
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="36"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="37"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="37" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37" t="s">
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37" t="s">
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="38">
+      <c r="X2" s="38"/>
+      <c r="Y2" s="39">
         <v>45083</v>
       </c>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="39" t="s">
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="39"/>
-      <c r="AH2" s="40">
-        <v>45083</v>
-      </c>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="42"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="41">
+        <v>45084</v>
+      </c>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="42"/>
+      <c r="AN2" s="43"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="29" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="33"/>
-      <c r="AH3" s="33"/>
-      <c r="AI3" s="33"/>
-      <c r="AJ3" s="33"/>
-      <c r="AK3" s="33"/>
-      <c r="AL3" s="33"/>
-      <c r="AM3" s="33"/>
-      <c r="AN3" s="34"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="34"/>
+      <c r="AJ3" s="34"/>
+      <c r="AK3" s="34"/>
+      <c r="AL3" s="34"/>
+      <c r="AM3" s="34"/>
+      <c r="AN3" s="35"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -7011,7 +7089,7 @@
       <c r="M69" s="15"/>
       <c r="N69" s="17"/>
       <c r="O69" s="14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P69" s="15"/>
       <c r="Q69" s="15"/>
@@ -7025,7 +7103,7 @@
       </c>
       <c r="V69" s="17"/>
       <c r="W69" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="X69" s="15"/>
       <c r="Y69" s="15"/>
@@ -7035,7 +7113,9 @@
       </c>
       <c r="AB69" s="15"/>
       <c r="AC69" s="17"/>
-      <c r="AD69" s="14"/>
+      <c r="AD69" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="AE69" s="15"/>
       <c r="AF69" s="15"/>
       <c r="AG69" s="15"/>
@@ -7118,7 +7198,7 @@
       <c r="J71" s="15"/>
       <c r="K71" s="17"/>
       <c r="L71" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M71" s="15"/>
       <c r="N71" s="17"/>
@@ -7156,7 +7236,7 @@
         <v>4</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E72" s="15"/>
       <c r="F72" s="15"/>
@@ -7168,12 +7248,12 @@
       <c r="J72" s="15"/>
       <c r="K72" s="17"/>
       <c r="L72" s="14" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="M72" s="15"/>
       <c r="N72" s="17"/>
       <c r="O72" s="14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="P72" s="15"/>
       <c r="Q72" s="15"/>
@@ -7182,19 +7262,15 @@
       <c r="T72" s="17"/>
       <c r="U72" s="14"/>
       <c r="V72" s="17"/>
-      <c r="W72" s="14" t="s">
-        <v>54</v>
-      </c>
+      <c r="W72" s="14"/>
       <c r="X72" s="15"/>
       <c r="Y72" s="15"/>
       <c r="Z72" s="17"/>
-      <c r="AA72" s="14" t="s">
-        <v>55</v>
-      </c>
+      <c r="AA72" s="14"/>
       <c r="AB72" s="15"/>
       <c r="AC72" s="17"/>
       <c r="AD72" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AE72" s="15"/>
       <c r="AF72" s="15"/>
@@ -7214,7 +7290,7 @@
         <v>5</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E73" s="15"/>
       <c r="F73" s="15"/>
@@ -7231,7 +7307,7 @@
       <c r="M73" s="15"/>
       <c r="N73" s="17"/>
       <c r="O73" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="P73" s="15"/>
       <c r="Q73" s="15"/>
@@ -7245,17 +7321,19 @@
       </c>
       <c r="V73" s="17"/>
       <c r="W73" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="X73" s="15"/>
       <c r="Y73" s="15"/>
       <c r="Z73" s="17"/>
       <c r="AA73" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AB73" s="15"/>
       <c r="AC73" s="17"/>
-      <c r="AD73" s="14"/>
+      <c r="AD73" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="AE73" s="15"/>
       <c r="AF73" s="15"/>
       <c r="AG73" s="15"/>
@@ -7273,18 +7351,26 @@
       <c r="C74" s="13">
         <v>6</v>
       </c>
-      <c r="D74" s="14"/>
+      <c r="D74" s="14" t="s">
+        <v>25</v>
+      </c>
       <c r="E74" s="15"/>
       <c r="F74" s="15"/>
       <c r="G74" s="13"/>
-      <c r="H74" s="14"/>
+      <c r="H74" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="I74" s="16"/>
       <c r="J74" s="15"/>
       <c r="K74" s="17"/>
-      <c r="L74" s="14"/>
+      <c r="L74" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="M74" s="15"/>
       <c r="N74" s="17"/>
-      <c r="O74" s="14"/>
+      <c r="O74" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="P74" s="15"/>
       <c r="Q74" s="15"/>
       <c r="R74" s="17"/>
@@ -7317,15 +7403,21 @@
       <c r="C75" s="13">
         <v>7</v>
       </c>
-      <c r="D75" s="14"/>
+      <c r="D75" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="E75" s="15"/>
       <c r="F75" s="15"/>
       <c r="G75" s="13"/>
-      <c r="H75" s="14"/>
+      <c r="H75" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="I75" s="16"/>
       <c r="J75" s="15"/>
       <c r="K75" s="17"/>
-      <c r="L75" s="14"/>
+      <c r="L75" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="M75" s="15"/>
       <c r="N75" s="17"/>
       <c r="O75" s="14"/>
@@ -7393,17 +7485,19 @@
       </c>
       <c r="V76" s="17"/>
       <c r="W76" s="14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="X76" s="15"/>
       <c r="Y76" s="15"/>
       <c r="Z76" s="17"/>
       <c r="AA76" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AB76" s="15"/>
       <c r="AC76" s="17"/>
-      <c r="AD76" s="14"/>
+      <c r="AD76" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="AE76" s="15"/>
       <c r="AF76" s="15"/>
       <c r="AG76" s="15"/>
@@ -7415,13 +7509,13 @@
       <c r="AM76" s="18"/>
       <c r="AN76" s="7"/>
     </row>
-    <row r="77" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="12"/>
       <c r="C77" s="13">
         <v>9</v>
       </c>
-      <c r="D77" s="44" t="s">
+      <c r="D77" s="19" t="s">
         <v>39</v>
       </c>
       <c r="E77" s="15"/>
@@ -7444,26 +7538,20 @@
       <c r="P77" s="15"/>
       <c r="Q77" s="15"/>
       <c r="R77" s="17"/>
-      <c r="S77" s="14">
-        <v>8</v>
-      </c>
+      <c r="S77" s="14"/>
       <c r="T77" s="17"/>
-      <c r="U77" s="14">
-        <v>20</v>
-      </c>
+      <c r="U77" s="14"/>
       <c r="V77" s="17"/>
-      <c r="W77" s="14" t="s">
-        <v>47</v>
-      </c>
+      <c r="W77" s="14"/>
       <c r="X77" s="15"/>
       <c r="Y77" s="15"/>
       <c r="Z77" s="17"/>
-      <c r="AA77" s="14" t="s">
-        <v>48</v>
-      </c>
+      <c r="AA77" s="14"/>
       <c r="AB77" s="15"/>
       <c r="AC77" s="17"/>
-      <c r="AD77" s="14"/>
+      <c r="AD77" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="AE77" s="15"/>
       <c r="AF77" s="15"/>
       <c r="AG77" s="15"/>
@@ -7475,13 +7563,13 @@
       <c r="AM77" s="18"/>
       <c r="AN77" s="7"/>
     </row>
-    <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="12"/>
       <c r="C78" s="13">
         <v>10</v>
       </c>
-      <c r="D78" s="44" t="s">
+      <c r="D78" s="19" t="s">
         <v>27</v>
       </c>
       <c r="E78" s="15"/>
@@ -7534,19 +7622,19 @@
         <v>11</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E79" s="15"/>
       <c r="F79" s="15"/>
       <c r="G79" s="13"/>
       <c r="H79" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I79" s="16"/>
       <c r="J79" s="15"/>
       <c r="K79" s="17"/>
       <c r="L79" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M79" s="15"/>
       <c r="N79" s="17"/>

--- a/doc/外部設計書/外部設計書_F2_fireworks_PWリセット.xlsx
+++ b/doc/外部設計書/外部設計書_F2_fireworks_PWリセット.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61666E9F-8238-42B8-8EDB-FDA0675C7A46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECBCBF1-DE26-48D5-AE61-8CF6FBEAD365}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -375,7 +375,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -425,6 +425,20 @@
       <color rgb="FF111111"/>
       <name val="Roboto"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -746,7 +760,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -828,15 +842,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -857,9 +862,6 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -869,8 +871,61 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3407,15 +3462,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>209176</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>164352</xdr:rowOff>
+      <xdr:colOff>194235</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>179292</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>66507</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>146538</xdr:rowOff>
+      <xdr:colOff>51566</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>161478</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3430,8 +3485,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="461548" y="5968903"/>
-          <a:ext cx="6923741" cy="5786738"/>
+          <a:off x="448235" y="6006351"/>
+          <a:ext cx="6969331" cy="6003480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3460,135 +3515,135 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1"/>
             <a:t>「</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1"/>
             <a:t>2 </a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1"/>
             <a:t>次へ」クリック</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
             <a:t>	</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
             <a:t>入力した</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
             <a:t>ID</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
             <a:t>がデーターベースに存在した場合、秘密の質問画面に遷移する</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
             <a:t>	</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
             <a:t>データーベースに存在しない場合、モーダルウィンドウでエラーメッセージを表示</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
         <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1"/>
             <a:t>「</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1"/>
             <a:t>3 </a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1"/>
             <a:t>戻る」クリック</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
             <a:t>	</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
             <a:t>ログインページに遷移する</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
         <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1"/>
             <a:t>「</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1"/>
             <a:t>4 </a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1"/>
             <a:t>▼」クリック</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
             <a:t>	</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
             <a:t>プルダウンで秘密の質問を選択</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
         <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1"/>
             <a:t>「</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1"/>
             <a:t>6 </a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1"/>
             <a:t>次へ」クリック</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
             <a:t>	ID</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
             <a:t>および入力した秘密の質問と解答が一致していれば、新パスワード設定画面に遷移する</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -3609,11 +3664,11 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
             <a:t>	</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="800">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3624,7 +3679,7 @@
             </a:rPr>
             <a:t>データーベースに存在しない場合、モーダルウィンドウでエラーメッセージを表示</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -3653,7 +3708,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3665,7 +3720,7 @@
             <a:t>	</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3677,7 +3732,7 @@
             <a:t>データベースの</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3689,7 +3744,7 @@
             <a:t>PW</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3700,73 +3755,73 @@
             </a:rPr>
             <a:t>を消去する</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
         <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1"/>
             <a:t>「</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1"/>
             <a:t>7 </a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1"/>
             <a:t>戻る」クリック</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
             <a:t>	</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
             <a:t>パスワード再登録の</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
             <a:t>ID</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
             <a:t>入力画面に遷移する</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
         <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1"/>
             <a:t>「</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1"/>
             <a:t>10 </a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1"/>
             <a:t>登録」クリック</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
             <a:t>	</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
             <a:t>登録完了画面に遷移する</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -3787,15 +3842,15 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
             <a:t>	</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
             <a:t>登録条件を</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3807,7 +3862,7 @@
             <a:t>満たさ</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="800">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3818,45 +3873,45 @@
             </a:rPr>
             <a:t>ない場合、エラーメッセージを表示</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
         <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1"/>
             <a:t>「</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1"/>
             <a:t>11 </a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1"/>
             <a:t>ログイン画面へ」クリック</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
             <a:t>	</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
             <a:t>ログイン画面に遷移する</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
         <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
         <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
         <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4259,10 +4314,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN100"/>
+  <dimension ref="A1:AT100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L75" sqref="L75"/>
+      <selection activeCell="AI57" sqref="AI57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4283,11 +4338,11 @@
       <c r="H1" s="21"/>
       <c r="I1" s="21"/>
       <c r="J1" s="22"/>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
       <c r="N1" s="29" t="s">
         <v>21</v>
       </c>
@@ -4299,10 +4354,10 @@
       <c r="T1" s="29"/>
       <c r="U1" s="29"/>
       <c r="V1" s="29"/>
-      <c r="W1" s="29" t="s">
+      <c r="W1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="29"/>
+      <c r="X1" s="40"/>
       <c r="Y1" s="29" t="s">
         <v>22</v>
       </c>
@@ -4312,19 +4367,19 @@
       <c r="AC1" s="29"/>
       <c r="AD1" s="29"/>
       <c r="AE1" s="29"/>
-      <c r="AF1" s="44" t="s">
+      <c r="AF1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="36" t="s">
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="37"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="34"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="23"/>
@@ -4337,48 +4392,48 @@
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
       <c r="J2" s="25"/>
-      <c r="K2" s="38" t="s">
+      <c r="K2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38" t="s">
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38" t="s">
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="39">
+      <c r="X2" s="41"/>
+      <c r="Y2" s="36">
         <v>45083</v>
       </c>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="40" t="s">
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="40"/>
-      <c r="AH2" s="41">
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="37">
         <v>45084</v>
       </c>
-      <c r="AI2" s="42"/>
-      <c r="AJ2" s="42"/>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="42"/>
-      <c r="AN2" s="43"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="39"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="26"/>
@@ -4391,38 +4446,38 @@
       <c r="H3" s="27"/>
       <c r="I3" s="27"/>
       <c r="J3" s="28"/>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="31"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="34"/>
-      <c r="AI3" s="34"/>
-      <c r="AJ3" s="34"/>
-      <c r="AK3" s="34"/>
-      <c r="AL3" s="34"/>
-      <c r="AM3" s="34"/>
-      <c r="AN3" s="35"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="31"/>
+      <c r="AF3" s="31"/>
+      <c r="AG3" s="31"/>
+      <c r="AH3" s="31"/>
+      <c r="AI3" s="31"/>
+      <c r="AJ3" s="31"/>
+      <c r="AK3" s="31"/>
+      <c r="AL3" s="31"/>
+      <c r="AM3" s="31"/>
+      <c r="AN3" s="32"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -4471,7 +4526,7 @@
     </row>
     <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="61" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="4"/>
@@ -5495,7 +5550,7 @@
     </row>
     <row r="31" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6"/>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="61" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="4"/>
@@ -6919,7 +6974,7 @@
     </row>
     <row r="66" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="6"/>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="61" t="s">
         <v>10</v>
       </c>
       <c r="C66" s="4"/>
@@ -7005,53 +7060,53 @@
     </row>
     <row r="68" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="6"/>
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C68" s="13"/>
-      <c r="D68" s="14" t="s">
+      <c r="C68" s="48"/>
+      <c r="D68" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="14" t="s">
+      <c r="E68" s="50"/>
+      <c r="F68" s="50"/>
+      <c r="G68" s="48"/>
+      <c r="H68" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="I68" s="16"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="17"/>
-      <c r="L68" s="14" t="s">
+      <c r="I68" s="51"/>
+      <c r="J68" s="50"/>
+      <c r="K68" s="52"/>
+      <c r="L68" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="M68" s="15"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="14" t="s">
+      <c r="M68" s="50"/>
+      <c r="N68" s="52"/>
+      <c r="O68" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="P68" s="15"/>
-      <c r="Q68" s="15"/>
-      <c r="R68" s="17"/>
-      <c r="S68" s="14" t="s">
+      <c r="P68" s="50"/>
+      <c r="Q68" s="50"/>
+      <c r="R68" s="52"/>
+      <c r="S68" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="T68" s="17"/>
-      <c r="U68" s="14" t="s">
+      <c r="T68" s="52"/>
+      <c r="U68" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="V68" s="17"/>
-      <c r="W68" s="14" t="s">
+      <c r="V68" s="52"/>
+      <c r="W68" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="X68" s="15"/>
-      <c r="Y68" s="15"/>
-      <c r="Z68" s="17"/>
-      <c r="AA68" s="14" t="s">
+      <c r="X68" s="50"/>
+      <c r="Y68" s="50"/>
+      <c r="Z68" s="52"/>
+      <c r="AA68" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="AB68" s="15"/>
-      <c r="AC68" s="17"/>
-      <c r="AD68" s="14" t="s">
+      <c r="AB68" s="50"/>
+      <c r="AC68" s="52"/>
+      <c r="AD68" s="49" t="s">
         <v>18</v>
       </c>
       <c r="AE68" s="15"/>
@@ -7667,866 +7722,1013 @@
     </row>
     <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="13">
+      <c r="B80" s="3"/>
+      <c r="C80" s="53">
         <v>12</v>
       </c>
-      <c r="D80" s="14" t="s">
+      <c r="D80" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="14" t="s">
+      <c r="E80" s="55"/>
+      <c r="F80" s="55"/>
+      <c r="G80" s="53"/>
+      <c r="H80" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="I80" s="16"/>
-      <c r="J80" s="15"/>
-      <c r="K80" s="17"/>
-      <c r="L80" s="14" t="s">
+      <c r="I80" s="56"/>
+      <c r="J80" s="55"/>
+      <c r="K80" s="57"/>
+      <c r="L80" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="M80" s="15"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="14"/>
-      <c r="P80" s="15"/>
-      <c r="Q80" s="15"/>
-      <c r="R80" s="17"/>
-      <c r="S80" s="14"/>
-      <c r="T80" s="17"/>
-      <c r="U80" s="14"/>
-      <c r="V80" s="17"/>
-      <c r="W80" s="14"/>
-      <c r="X80" s="15"/>
-      <c r="Y80" s="15"/>
-      <c r="Z80" s="17"/>
-      <c r="AA80" s="14"/>
-      <c r="AB80" s="15"/>
-      <c r="AC80" s="17"/>
-      <c r="AD80" s="14"/>
-      <c r="AE80" s="15"/>
-      <c r="AF80" s="15"/>
-      <c r="AG80" s="15"/>
-      <c r="AH80" s="15"/>
-      <c r="AI80" s="15"/>
-      <c r="AJ80" s="15"/>
-      <c r="AK80" s="15"/>
-      <c r="AL80" s="15"/>
-      <c r="AM80" s="18"/>
+      <c r="M80" s="55"/>
+      <c r="N80" s="57"/>
+      <c r="O80" s="54"/>
+      <c r="P80" s="55"/>
+      <c r="Q80" s="55"/>
+      <c r="R80" s="57"/>
+      <c r="S80" s="54"/>
+      <c r="T80" s="57"/>
+      <c r="U80" s="54"/>
+      <c r="V80" s="57"/>
+      <c r="W80" s="54"/>
+      <c r="X80" s="55"/>
+      <c r="Y80" s="55"/>
+      <c r="Z80" s="57"/>
+      <c r="AA80" s="54"/>
+      <c r="AB80" s="55"/>
+      <c r="AC80" s="57"/>
+      <c r="AD80" s="54"/>
+      <c r="AE80" s="55"/>
+      <c r="AF80" s="55"/>
+      <c r="AG80" s="55"/>
+      <c r="AH80" s="55"/>
+      <c r="AI80" s="55"/>
+      <c r="AJ80" s="55"/>
+      <c r="AK80" s="55"/>
+      <c r="AL80" s="55"/>
+      <c r="AM80" s="5"/>
       <c r="AN80" s="7"/>
     </row>
-    <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="6"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="13">
-        <v>13</v>
-      </c>
-      <c r="D81" s="14"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="16"/>
-      <c r="J81" s="15"/>
-      <c r="K81" s="17"/>
-      <c r="L81" s="14"/>
-      <c r="M81" s="15"/>
-      <c r="N81" s="17"/>
-      <c r="O81" s="14"/>
-      <c r="P81" s="15"/>
-      <c r="Q81" s="15"/>
-      <c r="R81" s="17"/>
-      <c r="S81" s="14"/>
-      <c r="T81" s="17"/>
-      <c r="U81" s="14"/>
-      <c r="V81" s="17"/>
-      <c r="W81" s="14"/>
-      <c r="X81" s="15"/>
-      <c r="Y81" s="15"/>
-      <c r="Z81" s="17"/>
-      <c r="AA81" s="14"/>
-      <c r="AB81" s="15"/>
-      <c r="AC81" s="17"/>
-      <c r="AD81" s="14"/>
-      <c r="AE81" s="15"/>
-      <c r="AF81" s="15"/>
-      <c r="AG81" s="15"/>
-      <c r="AH81" s="15"/>
-      <c r="AI81" s="15"/>
-      <c r="AJ81" s="15"/>
-      <c r="AK81" s="15"/>
-      <c r="AL81" s="15"/>
-      <c r="AM81" s="18"/>
+    <row r="81" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="58"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="56"/>
+      <c r="D81" s="55"/>
+      <c r="E81" s="55"/>
+      <c r="F81" s="55"/>
+      <c r="G81" s="56"/>
+      <c r="H81" s="55"/>
+      <c r="I81" s="56"/>
+      <c r="J81" s="55"/>
+      <c r="K81" s="55"/>
+      <c r="L81" s="55"/>
+      <c r="M81" s="55"/>
+      <c r="N81" s="55"/>
+      <c r="O81" s="55"/>
+      <c r="P81" s="55"/>
+      <c r="Q81" s="55"/>
+      <c r="R81" s="55"/>
+      <c r="S81" s="55"/>
+      <c r="T81" s="55"/>
+      <c r="U81" s="55"/>
+      <c r="V81" s="55"/>
+      <c r="W81" s="55"/>
+      <c r="X81" s="55"/>
+      <c r="Y81" s="55"/>
+      <c r="Z81" s="55"/>
+      <c r="AA81" s="55"/>
+      <c r="AB81" s="55"/>
+      <c r="AC81" s="55"/>
+      <c r="AD81" s="55"/>
+      <c r="AE81" s="55"/>
+      <c r="AF81" s="55"/>
+      <c r="AG81" s="55"/>
+      <c r="AH81" s="55"/>
+      <c r="AI81" s="55"/>
+      <c r="AJ81" s="55"/>
+      <c r="AK81" s="55"/>
+      <c r="AL81" s="55"/>
+      <c r="AM81" s="4"/>
       <c r="AN81" s="7"/>
-    </row>
-    <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="6"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="13">
-        <v>14</v>
-      </c>
-      <c r="D82" s="14"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="14"/>
-      <c r="I82" s="16"/>
-      <c r="J82" s="15"/>
-      <c r="K82" s="17"/>
-      <c r="L82" s="14"/>
-      <c r="M82" s="15"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="14"/>
-      <c r="P82" s="15"/>
-      <c r="Q82" s="15"/>
-      <c r="R82" s="17"/>
-      <c r="S82" s="14"/>
-      <c r="T82" s="17"/>
-      <c r="U82" s="14"/>
-      <c r="V82" s="17"/>
-      <c r="W82" s="14"/>
-      <c r="X82" s="15"/>
-      <c r="Y82" s="15"/>
-      <c r="Z82" s="17"/>
-      <c r="AA82" s="14"/>
-      <c r="AB82" s="15"/>
-      <c r="AC82" s="17"/>
-      <c r="AD82" s="14"/>
-      <c r="AE82" s="15"/>
-      <c r="AF82" s="15"/>
-      <c r="AG82" s="15"/>
-      <c r="AH82" s="15"/>
-      <c r="AI82" s="15"/>
-      <c r="AJ82" s="15"/>
-      <c r="AK82" s="15"/>
-      <c r="AL82" s="15"/>
-      <c r="AM82" s="18"/>
-      <c r="AN82" s="7"/>
-    </row>
-    <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="6"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="13">
-        <v>15</v>
-      </c>
-      <c r="D83" s="14"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="14"/>
-      <c r="I83" s="16"/>
-      <c r="J83" s="15"/>
-      <c r="K83" s="17"/>
-      <c r="L83" s="14"/>
-      <c r="M83" s="15"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="14"/>
-      <c r="P83" s="15"/>
-      <c r="Q83" s="15"/>
-      <c r="R83" s="17"/>
-      <c r="S83" s="14"/>
-      <c r="T83" s="17"/>
-      <c r="U83" s="14"/>
-      <c r="V83" s="17"/>
-      <c r="W83" s="14"/>
-      <c r="X83" s="15"/>
-      <c r="Y83" s="15"/>
-      <c r="Z83" s="17"/>
-      <c r="AA83" s="14"/>
-      <c r="AB83" s="15"/>
-      <c r="AC83" s="17"/>
-      <c r="AD83" s="14"/>
-      <c r="AE83" s="15"/>
-      <c r="AF83" s="15"/>
-      <c r="AG83" s="15"/>
-      <c r="AH83" s="15"/>
-      <c r="AI83" s="15"/>
-      <c r="AJ83" s="15"/>
-      <c r="AK83" s="15"/>
-      <c r="AL83" s="15"/>
-      <c r="AM83" s="18"/>
-      <c r="AN83" s="7"/>
-    </row>
-    <row r="84" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="6"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="13">
-        <v>16</v>
-      </c>
-      <c r="D84" s="14"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="14"/>
-      <c r="I84" s="16"/>
-      <c r="J84" s="15"/>
-      <c r="K84" s="17"/>
-      <c r="L84" s="14"/>
-      <c r="M84" s="15"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="14"/>
-      <c r="P84" s="15"/>
-      <c r="Q84" s="15"/>
-      <c r="R84" s="17"/>
-      <c r="S84" s="14"/>
-      <c r="T84" s="17"/>
-      <c r="U84" s="14"/>
-      <c r="V84" s="17"/>
-      <c r="W84" s="14"/>
-      <c r="X84" s="15"/>
-      <c r="Y84" s="15"/>
-      <c r="Z84" s="17"/>
-      <c r="AA84" s="14"/>
-      <c r="AB84" s="15"/>
-      <c r="AC84" s="17"/>
-      <c r="AD84" s="14"/>
-      <c r="AE84" s="15"/>
-      <c r="AF84" s="15"/>
-      <c r="AG84" s="15"/>
-      <c r="AH84" s="15"/>
-      <c r="AI84" s="15"/>
-      <c r="AJ84" s="15"/>
-      <c r="AK84" s="15"/>
-      <c r="AL84" s="15"/>
-      <c r="AM84" s="18"/>
-      <c r="AN84" s="7"/>
-    </row>
-    <row r="85" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="6"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="13">
-        <v>17</v>
-      </c>
-      <c r="D85" s="14"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="14"/>
-      <c r="I85" s="16"/>
-      <c r="J85" s="15"/>
-      <c r="K85" s="17"/>
-      <c r="L85" s="14"/>
-      <c r="M85" s="15"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="14"/>
-      <c r="P85" s="15"/>
-      <c r="Q85" s="15"/>
-      <c r="R85" s="17"/>
-      <c r="S85" s="14"/>
-      <c r="T85" s="17"/>
-      <c r="U85" s="14"/>
-      <c r="V85" s="17"/>
-      <c r="W85" s="14"/>
-      <c r="X85" s="15"/>
-      <c r="Y85" s="15"/>
-      <c r="Z85" s="17"/>
-      <c r="AA85" s="14"/>
-      <c r="AB85" s="15"/>
-      <c r="AC85" s="17"/>
-      <c r="AD85" s="14"/>
-      <c r="AE85" s="15"/>
-      <c r="AF85" s="15"/>
-      <c r="AG85" s="15"/>
-      <c r="AH85" s="15"/>
-      <c r="AI85" s="15"/>
-      <c r="AJ85" s="15"/>
-      <c r="AK85" s="15"/>
-      <c r="AL85" s="15"/>
-      <c r="AM85" s="18"/>
-      <c r="AN85" s="7"/>
-    </row>
-    <row r="86" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="6"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="13">
-        <v>18</v>
-      </c>
-      <c r="D86" s="14"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="13"/>
-      <c r="H86" s="14"/>
-      <c r="I86" s="16"/>
-      <c r="J86" s="15"/>
-      <c r="K86" s="17"/>
-      <c r="L86" s="14"/>
-      <c r="M86" s="15"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="14"/>
-      <c r="P86" s="15"/>
-      <c r="Q86" s="15"/>
-      <c r="R86" s="17"/>
-      <c r="S86" s="14"/>
-      <c r="T86" s="17"/>
-      <c r="U86" s="14"/>
-      <c r="V86" s="17"/>
-      <c r="W86" s="14"/>
-      <c r="X86" s="15"/>
-      <c r="Y86" s="15"/>
-      <c r="Z86" s="17"/>
-      <c r="AA86" s="14"/>
-      <c r="AB86" s="15"/>
-      <c r="AC86" s="17"/>
-      <c r="AD86" s="14"/>
-      <c r="AE86" s="15"/>
-      <c r="AF86" s="15"/>
-      <c r="AG86" s="15"/>
-      <c r="AH86" s="15"/>
-      <c r="AI86" s="15"/>
-      <c r="AJ86" s="15"/>
-      <c r="AK86" s="15"/>
-      <c r="AL86" s="15"/>
-      <c r="AM86" s="18"/>
-      <c r="AN86" s="7"/>
-    </row>
-    <row r="87" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="6"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="15"/>
-      <c r="G87" s="13"/>
-      <c r="H87" s="14"/>
-      <c r="I87" s="16"/>
-      <c r="J87" s="15"/>
-      <c r="K87" s="17"/>
-      <c r="L87" s="14"/>
-      <c r="M87" s="15"/>
-      <c r="N87" s="17"/>
-      <c r="O87" s="14"/>
-      <c r="P87" s="15"/>
-      <c r="Q87" s="15"/>
-      <c r="R87" s="17"/>
-      <c r="S87" s="14"/>
-      <c r="T87" s="17"/>
-      <c r="U87" s="14"/>
-      <c r="V87" s="17"/>
-      <c r="W87" s="14"/>
-      <c r="X87" s="15"/>
-      <c r="Y87" s="15"/>
-      <c r="Z87" s="17"/>
-      <c r="AA87" s="14"/>
-      <c r="AB87" s="15"/>
-      <c r="AC87" s="17"/>
-      <c r="AD87" s="14"/>
-      <c r="AE87" s="15"/>
-      <c r="AF87" s="15"/>
-      <c r="AG87" s="15"/>
-      <c r="AH87" s="15"/>
-      <c r="AI87" s="15"/>
-      <c r="AJ87" s="15"/>
-      <c r="AK87" s="15"/>
-      <c r="AL87" s="15"/>
-      <c r="AM87" s="18"/>
-      <c r="AN87" s="7"/>
-    </row>
-    <row r="88" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="6"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="14"/>
-      <c r="I88" s="16"/>
-      <c r="J88" s="15"/>
-      <c r="K88" s="17"/>
-      <c r="L88" s="14"/>
-      <c r="M88" s="15"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="14"/>
-      <c r="P88" s="15"/>
-      <c r="Q88" s="15"/>
-      <c r="R88" s="17"/>
-      <c r="S88" s="14"/>
-      <c r="T88" s="17"/>
-      <c r="U88" s="14"/>
-      <c r="V88" s="17"/>
-      <c r="W88" s="14"/>
-      <c r="X88" s="15"/>
-      <c r="Y88" s="15"/>
-      <c r="Z88" s="17"/>
-      <c r="AA88" s="14"/>
-      <c r="AB88" s="15"/>
-      <c r="AC88" s="17"/>
-      <c r="AD88" s="14"/>
-      <c r="AE88" s="15"/>
-      <c r="AF88" s="15"/>
-      <c r="AG88" s="15"/>
-      <c r="AH88" s="15"/>
-      <c r="AI88" s="15"/>
-      <c r="AJ88" s="15"/>
-      <c r="AK88" s="15"/>
-      <c r="AL88" s="15"/>
-      <c r="AM88" s="18"/>
-      <c r="AN88" s="7"/>
-    </row>
-    <row r="89" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="6"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="15"/>
-      <c r="G89" s="13"/>
-      <c r="H89" s="14"/>
-      <c r="I89" s="16"/>
-      <c r="J89" s="15"/>
-      <c r="K89" s="17"/>
-      <c r="L89" s="14"/>
-      <c r="M89" s="15"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="14"/>
-      <c r="P89" s="15"/>
-      <c r="Q89" s="15"/>
-      <c r="R89" s="17"/>
-      <c r="S89" s="14"/>
-      <c r="T89" s="17"/>
-      <c r="U89" s="14"/>
-      <c r="V89" s="17"/>
-      <c r="W89" s="14"/>
-      <c r="X89" s="15"/>
-      <c r="Y89" s="15"/>
-      <c r="Z89" s="17"/>
-      <c r="AA89" s="14"/>
-      <c r="AB89" s="15"/>
-      <c r="AC89" s="17"/>
-      <c r="AD89" s="14"/>
-      <c r="AE89" s="15"/>
-      <c r="AF89" s="15"/>
-      <c r="AG89" s="15"/>
-      <c r="AH89" s="15"/>
-      <c r="AI89" s="15"/>
-      <c r="AJ89" s="15"/>
-      <c r="AK89" s="15"/>
-      <c r="AL89" s="15"/>
-      <c r="AM89" s="18"/>
-      <c r="AN89" s="7"/>
-    </row>
-    <row r="90" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="6"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
-      <c r="G90" s="13"/>
-      <c r="H90" s="14"/>
-      <c r="I90" s="16"/>
-      <c r="J90" s="15"/>
-      <c r="K90" s="17"/>
-      <c r="L90" s="14"/>
-      <c r="M90" s="15"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="14"/>
-      <c r="P90" s="15"/>
-      <c r="Q90" s="15"/>
-      <c r="R90" s="17"/>
-      <c r="S90" s="14"/>
-      <c r="T90" s="17"/>
-      <c r="U90" s="14"/>
-      <c r="V90" s="17"/>
-      <c r="W90" s="14"/>
-      <c r="X90" s="15"/>
-      <c r="Y90" s="15"/>
-      <c r="Z90" s="17"/>
-      <c r="AA90" s="14"/>
-      <c r="AB90" s="15"/>
-      <c r="AC90" s="17"/>
-      <c r="AD90" s="14"/>
-      <c r="AE90" s="15"/>
-      <c r="AF90" s="15"/>
-      <c r="AG90" s="15"/>
-      <c r="AH90" s="15"/>
-      <c r="AI90" s="15"/>
-      <c r="AJ90" s="15"/>
-      <c r="AK90" s="15"/>
-      <c r="AL90" s="15"/>
-      <c r="AM90" s="18"/>
-      <c r="AN90" s="7"/>
-    </row>
-    <row r="91" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="6"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="15"/>
-      <c r="F91" s="15"/>
-      <c r="G91" s="13"/>
-      <c r="H91" s="14"/>
-      <c r="I91" s="16"/>
-      <c r="J91" s="15"/>
-      <c r="K91" s="17"/>
-      <c r="L91" s="14"/>
-      <c r="M91" s="15"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="14"/>
-      <c r="P91" s="15"/>
-      <c r="Q91" s="15"/>
-      <c r="R91" s="17"/>
-      <c r="S91" s="14"/>
-      <c r="T91" s="17"/>
-      <c r="U91" s="14"/>
-      <c r="V91" s="17"/>
-      <c r="W91" s="14"/>
-      <c r="X91" s="15"/>
-      <c r="Y91" s="15"/>
-      <c r="Z91" s="17"/>
-      <c r="AA91" s="14"/>
-      <c r="AB91" s="15"/>
-      <c r="AC91" s="17"/>
-      <c r="AD91" s="14"/>
-      <c r="AE91" s="15"/>
-      <c r="AF91" s="15"/>
-      <c r="AG91" s="15"/>
-      <c r="AH91" s="15"/>
-      <c r="AI91" s="15"/>
-      <c r="AJ91" s="15"/>
-      <c r="AK91" s="15"/>
-      <c r="AL91" s="15"/>
-      <c r="AM91" s="18"/>
-      <c r="AN91" s="7"/>
-    </row>
-    <row r="92" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="6"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="15"/>
-      <c r="F92" s="15"/>
-      <c r="G92" s="13"/>
-      <c r="H92" s="14"/>
-      <c r="I92" s="16"/>
-      <c r="J92" s="15"/>
-      <c r="K92" s="17"/>
-      <c r="L92" s="14"/>
-      <c r="M92" s="15"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="14"/>
-      <c r="P92" s="15"/>
-      <c r="Q92" s="15"/>
-      <c r="R92" s="17"/>
-      <c r="S92" s="14"/>
-      <c r="T92" s="17"/>
-      <c r="U92" s="14"/>
-      <c r="V92" s="17"/>
-      <c r="W92" s="14"/>
-      <c r="X92" s="15"/>
-      <c r="Y92" s="15"/>
-      <c r="Z92" s="17"/>
-      <c r="AA92" s="14"/>
-      <c r="AB92" s="15"/>
-      <c r="AC92" s="17"/>
-      <c r="AD92" s="14"/>
-      <c r="AE92" s="15"/>
-      <c r="AF92" s="15"/>
-      <c r="AG92" s="15"/>
-      <c r="AH92" s="15"/>
-      <c r="AI92" s="15"/>
-      <c r="AJ92" s="15"/>
-      <c r="AK92" s="15"/>
-      <c r="AL92" s="15"/>
-      <c r="AM92" s="18"/>
-      <c r="AN92" s="7"/>
-    </row>
-    <row r="93" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="6"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="15"/>
-      <c r="F93" s="15"/>
-      <c r="G93" s="13"/>
-      <c r="H93" s="14"/>
-      <c r="I93" s="16"/>
-      <c r="J93" s="15"/>
-      <c r="K93" s="17"/>
-      <c r="L93" s="14"/>
-      <c r="M93" s="15"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="14"/>
-      <c r="P93" s="15"/>
-      <c r="Q93" s="15"/>
-      <c r="R93" s="17"/>
-      <c r="S93" s="14"/>
-      <c r="T93" s="17"/>
-      <c r="U93" s="14"/>
-      <c r="V93" s="17"/>
-      <c r="W93" s="14"/>
-      <c r="X93" s="15"/>
-      <c r="Y93" s="15"/>
-      <c r="Z93" s="17"/>
-      <c r="AA93" s="14"/>
-      <c r="AB93" s="15"/>
-      <c r="AC93" s="17"/>
-      <c r="AD93" s="14"/>
-      <c r="AE93" s="15"/>
-      <c r="AF93" s="15"/>
-      <c r="AG93" s="15"/>
-      <c r="AH93" s="15"/>
-      <c r="AI93" s="15"/>
-      <c r="AJ93" s="15"/>
-      <c r="AK93" s="15"/>
-      <c r="AL93" s="15"/>
-      <c r="AM93" s="18"/>
-      <c r="AN93" s="7"/>
-    </row>
-    <row r="94" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="6"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="15"/>
-      <c r="F94" s="15"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="14"/>
-      <c r="I94" s="16"/>
-      <c r="J94" s="15"/>
-      <c r="K94" s="17"/>
-      <c r="L94" s="14"/>
-      <c r="M94" s="15"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="14"/>
-      <c r="P94" s="15"/>
-      <c r="Q94" s="15"/>
-      <c r="R94" s="17"/>
-      <c r="S94" s="14"/>
-      <c r="T94" s="17"/>
-      <c r="U94" s="14"/>
-      <c r="V94" s="17"/>
-      <c r="W94" s="14"/>
-      <c r="X94" s="15"/>
-      <c r="Y94" s="15"/>
-      <c r="Z94" s="17"/>
-      <c r="AA94" s="14"/>
-      <c r="AB94" s="15"/>
-      <c r="AC94" s="17"/>
-      <c r="AD94" s="14"/>
-      <c r="AE94" s="15"/>
-      <c r="AF94" s="15"/>
-      <c r="AG94" s="15"/>
-      <c r="AH94" s="15"/>
-      <c r="AI94" s="15"/>
-      <c r="AJ94" s="15"/>
-      <c r="AK94" s="15"/>
-      <c r="AL94" s="15"/>
-      <c r="AM94" s="18"/>
-      <c r="AN94" s="7"/>
-    </row>
-    <row r="95" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="6"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="15"/>
-      <c r="F95" s="15"/>
-      <c r="G95" s="13"/>
-      <c r="H95" s="14"/>
-      <c r="I95" s="16"/>
-      <c r="J95" s="15"/>
-      <c r="K95" s="17"/>
-      <c r="L95" s="14"/>
-      <c r="M95" s="15"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="14"/>
-      <c r="P95" s="15"/>
-      <c r="Q95" s="15"/>
-      <c r="R95" s="17"/>
-      <c r="S95" s="14"/>
-      <c r="T95" s="17"/>
-      <c r="U95" s="14"/>
-      <c r="V95" s="17"/>
-      <c r="W95" s="14"/>
-      <c r="X95" s="15"/>
-      <c r="Y95" s="15"/>
-      <c r="Z95" s="17"/>
-      <c r="AA95" s="14"/>
-      <c r="AB95" s="15"/>
-      <c r="AC95" s="17"/>
-      <c r="AD95" s="14"/>
-      <c r="AE95" s="15"/>
-      <c r="AF95" s="15"/>
-      <c r="AG95" s="15"/>
-      <c r="AH95" s="15"/>
-      <c r="AI95" s="15"/>
-      <c r="AJ95" s="15"/>
-      <c r="AK95" s="15"/>
-      <c r="AL95" s="15"/>
-      <c r="AM95" s="18"/>
-      <c r="AN95" s="7"/>
-    </row>
-    <row r="96" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="6"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="15"/>
-      <c r="F96" s="15"/>
-      <c r="G96" s="13"/>
-      <c r="H96" s="14"/>
-      <c r="I96" s="16"/>
-      <c r="J96" s="15"/>
-      <c r="K96" s="17"/>
-      <c r="L96" s="14"/>
-      <c r="M96" s="15"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="14"/>
-      <c r="P96" s="15"/>
-      <c r="Q96" s="15"/>
-      <c r="R96" s="17"/>
-      <c r="S96" s="14"/>
-      <c r="T96" s="17"/>
-      <c r="U96" s="14"/>
-      <c r="V96" s="17"/>
-      <c r="W96" s="14"/>
-      <c r="X96" s="15"/>
-      <c r="Y96" s="15"/>
-      <c r="Z96" s="17"/>
-      <c r="AA96" s="14"/>
-      <c r="AB96" s="15"/>
-      <c r="AC96" s="17"/>
-      <c r="AD96" s="14"/>
-      <c r="AE96" s="15"/>
-      <c r="AF96" s="15"/>
-      <c r="AG96" s="15"/>
-      <c r="AH96" s="15"/>
-      <c r="AI96" s="15"/>
-      <c r="AJ96" s="15"/>
-      <c r="AK96" s="15"/>
-      <c r="AL96" s="15"/>
-      <c r="AM96" s="18"/>
-      <c r="AN96" s="7"/>
-    </row>
-    <row r="97" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="6"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="15"/>
-      <c r="F97" s="15"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="14"/>
-      <c r="I97" s="16"/>
-      <c r="J97" s="15"/>
-      <c r="K97" s="17"/>
-      <c r="L97" s="14"/>
-      <c r="M97" s="15"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="14"/>
-      <c r="P97" s="15"/>
-      <c r="Q97" s="15"/>
-      <c r="R97" s="17"/>
-      <c r="S97" s="14"/>
-      <c r="T97" s="17"/>
-      <c r="U97" s="14"/>
-      <c r="V97" s="17"/>
-      <c r="W97" s="14"/>
-      <c r="X97" s="15"/>
-      <c r="Y97" s="15"/>
-      <c r="Z97" s="17"/>
-      <c r="AA97" s="14"/>
-      <c r="AB97" s="15"/>
-      <c r="AC97" s="17"/>
-      <c r="AD97" s="14"/>
-      <c r="AE97" s="15"/>
-      <c r="AF97" s="15"/>
-      <c r="AG97" s="15"/>
-      <c r="AH97" s="15"/>
-      <c r="AI97" s="15"/>
-      <c r="AJ97" s="15"/>
-      <c r="AK97" s="15"/>
-      <c r="AL97" s="15"/>
-      <c r="AM97" s="18"/>
-      <c r="AN97" s="7"/>
-    </row>
-    <row r="98" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="6"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="15"/>
-      <c r="F98" s="15"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="14"/>
-      <c r="I98" s="16"/>
-      <c r="J98" s="15"/>
-      <c r="K98" s="17"/>
-      <c r="L98" s="14"/>
-      <c r="M98" s="15"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="14"/>
-      <c r="P98" s="15"/>
-      <c r="Q98" s="15"/>
-      <c r="R98" s="17"/>
-      <c r="S98" s="14"/>
-      <c r="T98" s="17"/>
-      <c r="U98" s="14"/>
-      <c r="V98" s="17"/>
-      <c r="W98" s="14"/>
-      <c r="X98" s="15"/>
-      <c r="Y98" s="15"/>
-      <c r="Z98" s="17"/>
-      <c r="AA98" s="14"/>
-      <c r="AB98" s="15"/>
-      <c r="AC98" s="17"/>
-      <c r="AD98" s="14"/>
-      <c r="AE98" s="15"/>
-      <c r="AF98" s="15"/>
-      <c r="AG98" s="15"/>
-      <c r="AH98" s="15"/>
-      <c r="AI98" s="15"/>
-      <c r="AJ98" s="15"/>
-      <c r="AK98" s="15"/>
-      <c r="AL98" s="15"/>
-      <c r="AM98" s="18"/>
-      <c r="AN98" s="7"/>
-    </row>
-    <row r="99" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="9"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="10"/>
-      <c r="D99" s="10"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10"/>
-      <c r="G99" s="10"/>
-      <c r="H99" s="10"/>
-      <c r="I99" s="10"/>
-      <c r="J99" s="10"/>
-      <c r="K99" s="10"/>
-      <c r="L99" s="10"/>
-      <c r="M99" s="10"/>
-      <c r="N99" s="10"/>
-      <c r="O99" s="10"/>
-      <c r="P99" s="10"/>
-      <c r="Q99" s="10"/>
-      <c r="R99" s="10"/>
-      <c r="S99" s="10"/>
-      <c r="T99" s="10"/>
-      <c r="U99" s="10"/>
-      <c r="V99" s="10"/>
-      <c r="W99" s="10"/>
-      <c r="X99" s="10"/>
-      <c r="Y99" s="10"/>
-      <c r="Z99" s="10"/>
-      <c r="AA99" s="10"/>
-      <c r="AB99" s="10"/>
-      <c r="AC99" s="10"/>
-      <c r="AD99" s="10"/>
-      <c r="AE99" s="10"/>
-      <c r="AF99" s="10"/>
-      <c r="AG99" s="10"/>
-      <c r="AH99" s="10"/>
-      <c r="AI99" s="10"/>
-      <c r="AJ99" s="10"/>
-      <c r="AK99" s="10"/>
-      <c r="AL99" s="10"/>
-      <c r="AM99" s="10"/>
-      <c r="AN99" s="11"/>
-    </row>
-    <row r="100" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B100" s="10"/>
+      <c r="AO81" s="59"/>
+      <c r="AP81" s="59"/>
+      <c r="AQ81" s="59"/>
+      <c r="AR81" s="59"/>
+      <c r="AS81" s="59"/>
+      <c r="AT81" s="59"/>
+    </row>
+    <row r="82" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="56"/>
+      <c r="D82" s="55"/>
+      <c r="E82" s="55"/>
+      <c r="F82" s="55"/>
+      <c r="G82" s="56"/>
+      <c r="H82" s="55"/>
+      <c r="I82" s="56"/>
+      <c r="J82" s="55"/>
+      <c r="K82" s="55"/>
+      <c r="L82" s="55"/>
+      <c r="M82" s="55"/>
+      <c r="N82" s="55"/>
+      <c r="O82" s="55"/>
+      <c r="P82" s="55"/>
+      <c r="Q82" s="55"/>
+      <c r="R82" s="55"/>
+      <c r="S82" s="55"/>
+      <c r="T82" s="55"/>
+      <c r="U82" s="55"/>
+      <c r="V82" s="55"/>
+      <c r="W82" s="55"/>
+      <c r="X82" s="55"/>
+      <c r="Y82" s="55"/>
+      <c r="Z82" s="55"/>
+      <c r="AA82" s="55"/>
+      <c r="AB82" s="55"/>
+      <c r="AC82" s="55"/>
+      <c r="AD82" s="55"/>
+      <c r="AE82" s="55"/>
+      <c r="AF82" s="55"/>
+      <c r="AG82" s="55"/>
+      <c r="AH82" s="55"/>
+      <c r="AI82" s="55"/>
+      <c r="AJ82" s="55"/>
+      <c r="AK82" s="55"/>
+      <c r="AL82" s="55"/>
+      <c r="AM82" s="4"/>
+      <c r="AN82" s="4"/>
+      <c r="AO82" s="59"/>
+      <c r="AP82" s="59"/>
+      <c r="AQ82" s="59"/>
+      <c r="AR82" s="59"/>
+      <c r="AS82" s="59"/>
+      <c r="AT82" s="59"/>
+    </row>
+    <row r="83" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="58"/>
+      <c r="B83" s="58"/>
+      <c r="C83" s="59"/>
+      <c r="D83" s="60"/>
+      <c r="E83" s="60"/>
+      <c r="F83" s="60"/>
+      <c r="G83" s="59"/>
+      <c r="H83" s="60"/>
+      <c r="I83" s="59"/>
+      <c r="J83" s="60"/>
+      <c r="K83" s="60"/>
+      <c r="L83" s="60"/>
+      <c r="M83" s="60"/>
+      <c r="N83" s="60"/>
+      <c r="O83" s="60"/>
+      <c r="P83" s="60"/>
+      <c r="Q83" s="60"/>
+      <c r="R83" s="60"/>
+      <c r="S83" s="60"/>
+      <c r="T83" s="60"/>
+      <c r="U83" s="60"/>
+      <c r="V83" s="60"/>
+      <c r="W83" s="60"/>
+      <c r="X83" s="60"/>
+      <c r="Y83" s="60"/>
+      <c r="Z83" s="60"/>
+      <c r="AA83" s="60"/>
+      <c r="AB83" s="60"/>
+      <c r="AC83" s="60"/>
+      <c r="AD83" s="60"/>
+      <c r="AE83" s="60"/>
+      <c r="AF83" s="60"/>
+      <c r="AG83" s="60"/>
+      <c r="AH83" s="60"/>
+      <c r="AI83" s="60"/>
+      <c r="AJ83" s="60"/>
+      <c r="AK83" s="60"/>
+      <c r="AL83" s="60"/>
+      <c r="AM83" s="58"/>
+      <c r="AN83" s="58"/>
+      <c r="AO83" s="59"/>
+      <c r="AP83" s="59"/>
+      <c r="AQ83" s="59"/>
+      <c r="AR83" s="59"/>
+      <c r="AS83" s="59"/>
+      <c r="AT83" s="59"/>
+    </row>
+    <row r="84" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="58"/>
+      <c r="B84" s="58"/>
+      <c r="C84" s="59"/>
+      <c r="D84" s="60"/>
+      <c r="E84" s="60"/>
+      <c r="F84" s="60"/>
+      <c r="G84" s="59"/>
+      <c r="H84" s="60"/>
+      <c r="I84" s="59"/>
+      <c r="J84" s="60"/>
+      <c r="K84" s="60"/>
+      <c r="L84" s="60"/>
+      <c r="M84" s="60"/>
+      <c r="N84" s="60"/>
+      <c r="O84" s="60"/>
+      <c r="P84" s="60"/>
+      <c r="Q84" s="60"/>
+      <c r="R84" s="60"/>
+      <c r="S84" s="60"/>
+      <c r="T84" s="60"/>
+      <c r="U84" s="60"/>
+      <c r="V84" s="60"/>
+      <c r="W84" s="60"/>
+      <c r="X84" s="60"/>
+      <c r="Y84" s="60"/>
+      <c r="Z84" s="60"/>
+      <c r="AA84" s="60"/>
+      <c r="AB84" s="60"/>
+      <c r="AC84" s="60"/>
+      <c r="AD84" s="60"/>
+      <c r="AE84" s="60"/>
+      <c r="AF84" s="60"/>
+      <c r="AG84" s="60"/>
+      <c r="AH84" s="60"/>
+      <c r="AI84" s="60"/>
+      <c r="AJ84" s="60"/>
+      <c r="AK84" s="60"/>
+      <c r="AL84" s="60"/>
+      <c r="AM84" s="58"/>
+      <c r="AN84" s="58"/>
+      <c r="AO84" s="59"/>
+      <c r="AP84" s="59"/>
+      <c r="AQ84" s="59"/>
+      <c r="AR84" s="59"/>
+      <c r="AS84" s="59"/>
+      <c r="AT84" s="59"/>
+    </row>
+    <row r="85" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="58"/>
+      <c r="B85" s="58"/>
+      <c r="C85" s="59"/>
+      <c r="D85" s="60"/>
+      <c r="E85" s="60"/>
+      <c r="F85" s="60"/>
+      <c r="G85" s="59"/>
+      <c r="H85" s="60"/>
+      <c r="I85" s="59"/>
+      <c r="J85" s="60"/>
+      <c r="K85" s="60"/>
+      <c r="L85" s="60"/>
+      <c r="M85" s="60"/>
+      <c r="N85" s="60"/>
+      <c r="O85" s="60"/>
+      <c r="P85" s="60"/>
+      <c r="Q85" s="60"/>
+      <c r="R85" s="60"/>
+      <c r="S85" s="60"/>
+      <c r="T85" s="60"/>
+      <c r="U85" s="60"/>
+      <c r="V85" s="60"/>
+      <c r="W85" s="60"/>
+      <c r="X85" s="60"/>
+      <c r="Y85" s="60"/>
+      <c r="Z85" s="60"/>
+      <c r="AA85" s="60"/>
+      <c r="AB85" s="60"/>
+      <c r="AC85" s="60"/>
+      <c r="AD85" s="60"/>
+      <c r="AE85" s="60"/>
+      <c r="AF85" s="60"/>
+      <c r="AG85" s="60"/>
+      <c r="AH85" s="60"/>
+      <c r="AI85" s="60"/>
+      <c r="AJ85" s="60"/>
+      <c r="AK85" s="60"/>
+      <c r="AL85" s="60"/>
+      <c r="AM85" s="58"/>
+      <c r="AN85" s="58"/>
+      <c r="AO85" s="59"/>
+      <c r="AP85" s="59"/>
+      <c r="AQ85" s="59"/>
+      <c r="AR85" s="59"/>
+      <c r="AS85" s="59"/>
+      <c r="AT85" s="59"/>
+    </row>
+    <row r="86" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="58"/>
+      <c r="B86" s="58"/>
+      <c r="C86" s="59"/>
+      <c r="D86" s="60"/>
+      <c r="E86" s="60"/>
+      <c r="F86" s="60"/>
+      <c r="G86" s="59"/>
+      <c r="H86" s="60"/>
+      <c r="I86" s="59"/>
+      <c r="J86" s="60"/>
+      <c r="K86" s="60"/>
+      <c r="L86" s="60"/>
+      <c r="M86" s="60"/>
+      <c r="N86" s="60"/>
+      <c r="O86" s="60"/>
+      <c r="P86" s="60"/>
+      <c r="Q86" s="60"/>
+      <c r="R86" s="60"/>
+      <c r="S86" s="60"/>
+      <c r="T86" s="60"/>
+      <c r="U86" s="60"/>
+      <c r="V86" s="60"/>
+      <c r="W86" s="60"/>
+      <c r="X86" s="60"/>
+      <c r="Y86" s="60"/>
+      <c r="Z86" s="60"/>
+      <c r="AA86" s="60"/>
+      <c r="AB86" s="60"/>
+      <c r="AC86" s="60"/>
+      <c r="AD86" s="60"/>
+      <c r="AE86" s="60"/>
+      <c r="AF86" s="60"/>
+      <c r="AG86" s="60"/>
+      <c r="AH86" s="60"/>
+      <c r="AI86" s="60"/>
+      <c r="AJ86" s="60"/>
+      <c r="AK86" s="60"/>
+      <c r="AL86" s="60"/>
+      <c r="AM86" s="58"/>
+      <c r="AN86" s="58"/>
+      <c r="AO86" s="59"/>
+      <c r="AP86" s="59"/>
+      <c r="AQ86" s="59"/>
+      <c r="AR86" s="59"/>
+      <c r="AS86" s="59"/>
+      <c r="AT86" s="59"/>
+    </row>
+    <row r="87" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="58"/>
+      <c r="B87" s="58"/>
+      <c r="C87" s="59"/>
+      <c r="D87" s="60"/>
+      <c r="E87" s="60"/>
+      <c r="F87" s="60"/>
+      <c r="G87" s="59"/>
+      <c r="H87" s="60"/>
+      <c r="I87" s="59"/>
+      <c r="J87" s="60"/>
+      <c r="K87" s="60"/>
+      <c r="L87" s="60"/>
+      <c r="M87" s="60"/>
+      <c r="N87" s="60"/>
+      <c r="O87" s="60"/>
+      <c r="P87" s="60"/>
+      <c r="Q87" s="60"/>
+      <c r="R87" s="60"/>
+      <c r="S87" s="60"/>
+      <c r="T87" s="60"/>
+      <c r="U87" s="60"/>
+      <c r="V87" s="60"/>
+      <c r="W87" s="60"/>
+      <c r="X87" s="60"/>
+      <c r="Y87" s="60"/>
+      <c r="Z87" s="60"/>
+      <c r="AA87" s="60"/>
+      <c r="AB87" s="60"/>
+      <c r="AC87" s="60"/>
+      <c r="AD87" s="60"/>
+      <c r="AE87" s="60"/>
+      <c r="AF87" s="60"/>
+      <c r="AG87" s="60"/>
+      <c r="AH87" s="60"/>
+      <c r="AI87" s="60"/>
+      <c r="AJ87" s="60"/>
+      <c r="AK87" s="60"/>
+      <c r="AL87" s="60"/>
+      <c r="AM87" s="58"/>
+      <c r="AN87" s="58"/>
+      <c r="AO87" s="59"/>
+      <c r="AP87" s="59"/>
+      <c r="AQ87" s="59"/>
+      <c r="AR87" s="59"/>
+      <c r="AS87" s="59"/>
+      <c r="AT87" s="59"/>
+    </row>
+    <row r="88" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="58"/>
+      <c r="B88" s="58"/>
+      <c r="C88" s="59"/>
+      <c r="D88" s="60"/>
+      <c r="E88" s="60"/>
+      <c r="F88" s="60"/>
+      <c r="G88" s="59"/>
+      <c r="H88" s="60"/>
+      <c r="I88" s="59"/>
+      <c r="J88" s="60"/>
+      <c r="K88" s="60"/>
+      <c r="L88" s="60"/>
+      <c r="M88" s="60"/>
+      <c r="N88" s="60"/>
+      <c r="O88" s="60"/>
+      <c r="P88" s="60"/>
+      <c r="Q88" s="60"/>
+      <c r="R88" s="60"/>
+      <c r="S88" s="60"/>
+      <c r="T88" s="60"/>
+      <c r="U88" s="60"/>
+      <c r="V88" s="60"/>
+      <c r="W88" s="60"/>
+      <c r="X88" s="60"/>
+      <c r="Y88" s="60"/>
+      <c r="Z88" s="60"/>
+      <c r="AA88" s="60"/>
+      <c r="AB88" s="60"/>
+      <c r="AC88" s="60"/>
+      <c r="AD88" s="60"/>
+      <c r="AE88" s="60"/>
+      <c r="AF88" s="60"/>
+      <c r="AG88" s="60"/>
+      <c r="AH88" s="60"/>
+      <c r="AI88" s="60"/>
+      <c r="AJ88" s="60"/>
+      <c r="AK88" s="60"/>
+      <c r="AL88" s="60"/>
+      <c r="AM88" s="58"/>
+      <c r="AN88" s="58"/>
+      <c r="AO88" s="59"/>
+      <c r="AP88" s="59"/>
+      <c r="AQ88" s="59"/>
+      <c r="AR88" s="59"/>
+      <c r="AS88" s="59"/>
+      <c r="AT88" s="59"/>
+    </row>
+    <row r="89" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="58"/>
+      <c r="B89" s="58"/>
+      <c r="C89" s="59"/>
+      <c r="D89" s="60"/>
+      <c r="E89" s="60"/>
+      <c r="F89" s="60"/>
+      <c r="G89" s="59"/>
+      <c r="H89" s="60"/>
+      <c r="I89" s="59"/>
+      <c r="J89" s="60"/>
+      <c r="K89" s="60"/>
+      <c r="L89" s="60"/>
+      <c r="M89" s="60"/>
+      <c r="N89" s="60"/>
+      <c r="O89" s="60"/>
+      <c r="P89" s="60"/>
+      <c r="Q89" s="60"/>
+      <c r="R89" s="60"/>
+      <c r="S89" s="60"/>
+      <c r="T89" s="60"/>
+      <c r="U89" s="60"/>
+      <c r="V89" s="60"/>
+      <c r="W89" s="60"/>
+      <c r="X89" s="60"/>
+      <c r="Y89" s="60"/>
+      <c r="Z89" s="60"/>
+      <c r="AA89" s="60"/>
+      <c r="AB89" s="60"/>
+      <c r="AC89" s="60"/>
+      <c r="AD89" s="60"/>
+      <c r="AE89" s="60"/>
+      <c r="AF89" s="60"/>
+      <c r="AG89" s="60"/>
+      <c r="AH89" s="60"/>
+      <c r="AI89" s="60"/>
+      <c r="AJ89" s="60"/>
+      <c r="AK89" s="60"/>
+      <c r="AL89" s="60"/>
+      <c r="AM89" s="58"/>
+      <c r="AN89" s="58"/>
+      <c r="AO89" s="59"/>
+      <c r="AP89" s="59"/>
+      <c r="AQ89" s="59"/>
+      <c r="AR89" s="59"/>
+      <c r="AS89" s="59"/>
+      <c r="AT89" s="59"/>
+    </row>
+    <row r="90" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="58"/>
+      <c r="B90" s="58"/>
+      <c r="C90" s="59"/>
+      <c r="D90" s="60"/>
+      <c r="E90" s="60"/>
+      <c r="F90" s="60"/>
+      <c r="G90" s="59"/>
+      <c r="H90" s="60"/>
+      <c r="I90" s="59"/>
+      <c r="J90" s="60"/>
+      <c r="K90" s="60"/>
+      <c r="L90" s="60"/>
+      <c r="M90" s="60"/>
+      <c r="N90" s="60"/>
+      <c r="O90" s="60"/>
+      <c r="P90" s="60"/>
+      <c r="Q90" s="60"/>
+      <c r="R90" s="60"/>
+      <c r="S90" s="60"/>
+      <c r="T90" s="60"/>
+      <c r="U90" s="60"/>
+      <c r="V90" s="60"/>
+      <c r="W90" s="60"/>
+      <c r="X90" s="60"/>
+      <c r="Y90" s="60"/>
+      <c r="Z90" s="60"/>
+      <c r="AA90" s="60"/>
+      <c r="AB90" s="60"/>
+      <c r="AC90" s="60"/>
+      <c r="AD90" s="60"/>
+      <c r="AE90" s="60"/>
+      <c r="AF90" s="60"/>
+      <c r="AG90" s="60"/>
+      <c r="AH90" s="60"/>
+      <c r="AI90" s="60"/>
+      <c r="AJ90" s="60"/>
+      <c r="AK90" s="60"/>
+      <c r="AL90" s="60"/>
+      <c r="AM90" s="58"/>
+      <c r="AN90" s="58"/>
+      <c r="AO90" s="59"/>
+      <c r="AP90" s="59"/>
+      <c r="AQ90" s="59"/>
+      <c r="AR90" s="59"/>
+      <c r="AS90" s="59"/>
+      <c r="AT90" s="59"/>
+    </row>
+    <row r="91" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="58"/>
+      <c r="B91" s="58"/>
+      <c r="C91" s="59"/>
+      <c r="D91" s="60"/>
+      <c r="E91" s="60"/>
+      <c r="F91" s="60"/>
+      <c r="G91" s="59"/>
+      <c r="H91" s="60"/>
+      <c r="I91" s="59"/>
+      <c r="J91" s="60"/>
+      <c r="K91" s="60"/>
+      <c r="L91" s="60"/>
+      <c r="M91" s="60"/>
+      <c r="N91" s="60"/>
+      <c r="O91" s="60"/>
+      <c r="P91" s="60"/>
+      <c r="Q91" s="60"/>
+      <c r="R91" s="60"/>
+      <c r="S91" s="60"/>
+      <c r="T91" s="60"/>
+      <c r="U91" s="60"/>
+      <c r="V91" s="60"/>
+      <c r="W91" s="60"/>
+      <c r="X91" s="60"/>
+      <c r="Y91" s="60"/>
+      <c r="Z91" s="60"/>
+      <c r="AA91" s="60"/>
+      <c r="AB91" s="60"/>
+      <c r="AC91" s="60"/>
+      <c r="AD91" s="60"/>
+      <c r="AE91" s="60"/>
+      <c r="AF91" s="60"/>
+      <c r="AG91" s="60"/>
+      <c r="AH91" s="60"/>
+      <c r="AI91" s="60"/>
+      <c r="AJ91" s="60"/>
+      <c r="AK91" s="60"/>
+      <c r="AL91" s="60"/>
+      <c r="AM91" s="58"/>
+      <c r="AN91" s="58"/>
+      <c r="AO91" s="59"/>
+      <c r="AP91" s="59"/>
+      <c r="AQ91" s="59"/>
+      <c r="AR91" s="59"/>
+      <c r="AS91" s="59"/>
+      <c r="AT91" s="59"/>
+    </row>
+    <row r="92" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="58"/>
+      <c r="B92" s="58"/>
+      <c r="C92" s="59"/>
+      <c r="D92" s="60"/>
+      <c r="E92" s="60"/>
+      <c r="F92" s="60"/>
+      <c r="G92" s="59"/>
+      <c r="H92" s="60"/>
+      <c r="I92" s="59"/>
+      <c r="J92" s="60"/>
+      <c r="K92" s="60"/>
+      <c r="L92" s="60"/>
+      <c r="M92" s="60"/>
+      <c r="N92" s="60"/>
+      <c r="O92" s="60"/>
+      <c r="P92" s="60"/>
+      <c r="Q92" s="60"/>
+      <c r="R92" s="60"/>
+      <c r="S92" s="60"/>
+      <c r="T92" s="60"/>
+      <c r="U92" s="60"/>
+      <c r="V92" s="60"/>
+      <c r="W92" s="60"/>
+      <c r="X92" s="60"/>
+      <c r="Y92" s="60"/>
+      <c r="Z92" s="60"/>
+      <c r="AA92" s="60"/>
+      <c r="AB92" s="60"/>
+      <c r="AC92" s="60"/>
+      <c r="AD92" s="60"/>
+      <c r="AE92" s="60"/>
+      <c r="AF92" s="60"/>
+      <c r="AG92" s="60"/>
+      <c r="AH92" s="60"/>
+      <c r="AI92" s="60"/>
+      <c r="AJ92" s="60"/>
+      <c r="AK92" s="60"/>
+      <c r="AL92" s="60"/>
+      <c r="AM92" s="58"/>
+      <c r="AN92" s="58"/>
+      <c r="AO92" s="59"/>
+      <c r="AP92" s="59"/>
+      <c r="AQ92" s="59"/>
+      <c r="AR92" s="59"/>
+      <c r="AS92" s="59"/>
+      <c r="AT92" s="59"/>
+    </row>
+    <row r="93" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="58"/>
+      <c r="B93" s="58"/>
+      <c r="C93" s="59"/>
+      <c r="D93" s="60"/>
+      <c r="E93" s="60"/>
+      <c r="F93" s="60"/>
+      <c r="G93" s="59"/>
+      <c r="H93" s="60"/>
+      <c r="I93" s="59"/>
+      <c r="J93" s="60"/>
+      <c r="K93" s="60"/>
+      <c r="L93" s="60"/>
+      <c r="M93" s="60"/>
+      <c r="N93" s="60"/>
+      <c r="O93" s="60"/>
+      <c r="P93" s="60"/>
+      <c r="Q93" s="60"/>
+      <c r="R93" s="60"/>
+      <c r="S93" s="60"/>
+      <c r="T93" s="60"/>
+      <c r="U93" s="60"/>
+      <c r="V93" s="60"/>
+      <c r="W93" s="60"/>
+      <c r="X93" s="60"/>
+      <c r="Y93" s="60"/>
+      <c r="Z93" s="60"/>
+      <c r="AA93" s="60"/>
+      <c r="AB93" s="60"/>
+      <c r="AC93" s="60"/>
+      <c r="AD93" s="60"/>
+      <c r="AE93" s="60"/>
+      <c r="AF93" s="60"/>
+      <c r="AG93" s="60"/>
+      <c r="AH93" s="60"/>
+      <c r="AI93" s="60"/>
+      <c r="AJ93" s="60"/>
+      <c r="AK93" s="60"/>
+      <c r="AL93" s="60"/>
+      <c r="AM93" s="58"/>
+      <c r="AN93" s="58"/>
+      <c r="AO93" s="59"/>
+      <c r="AP93" s="59"/>
+      <c r="AQ93" s="59"/>
+      <c r="AR93" s="59"/>
+      <c r="AS93" s="59"/>
+      <c r="AT93" s="59"/>
+    </row>
+    <row r="94" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="58"/>
+      <c r="B94" s="58"/>
+      <c r="C94" s="59"/>
+      <c r="D94" s="60"/>
+      <c r="E94" s="60"/>
+      <c r="F94" s="60"/>
+      <c r="G94" s="59"/>
+      <c r="H94" s="60"/>
+      <c r="I94" s="59"/>
+      <c r="J94" s="60"/>
+      <c r="K94" s="60"/>
+      <c r="L94" s="60"/>
+      <c r="M94" s="60"/>
+      <c r="N94" s="60"/>
+      <c r="O94" s="60"/>
+      <c r="P94" s="60"/>
+      <c r="Q94" s="60"/>
+      <c r="R94" s="60"/>
+      <c r="S94" s="60"/>
+      <c r="T94" s="60"/>
+      <c r="U94" s="60"/>
+      <c r="V94" s="60"/>
+      <c r="W94" s="60"/>
+      <c r="X94" s="60"/>
+      <c r="Y94" s="60"/>
+      <c r="Z94" s="60"/>
+      <c r="AA94" s="60"/>
+      <c r="AB94" s="60"/>
+      <c r="AC94" s="60"/>
+      <c r="AD94" s="60"/>
+      <c r="AE94" s="60"/>
+      <c r="AF94" s="60"/>
+      <c r="AG94" s="60"/>
+      <c r="AH94" s="60"/>
+      <c r="AI94" s="60"/>
+      <c r="AJ94" s="60"/>
+      <c r="AK94" s="60"/>
+      <c r="AL94" s="60"/>
+      <c r="AM94" s="58"/>
+      <c r="AN94" s="58"/>
+      <c r="AO94" s="59"/>
+      <c r="AP94" s="59"/>
+      <c r="AQ94" s="59"/>
+      <c r="AR94" s="59"/>
+      <c r="AS94" s="59"/>
+      <c r="AT94" s="59"/>
+    </row>
+    <row r="95" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="58"/>
+      <c r="B95" s="58"/>
+      <c r="C95" s="59"/>
+      <c r="D95" s="60"/>
+      <c r="E95" s="60"/>
+      <c r="F95" s="60"/>
+      <c r="G95" s="59"/>
+      <c r="H95" s="60"/>
+      <c r="I95" s="59"/>
+      <c r="J95" s="60"/>
+      <c r="K95" s="60"/>
+      <c r="L95" s="60"/>
+      <c r="M95" s="60"/>
+      <c r="N95" s="60"/>
+      <c r="O95" s="60"/>
+      <c r="P95" s="60"/>
+      <c r="Q95" s="60"/>
+      <c r="R95" s="60"/>
+      <c r="S95" s="60"/>
+      <c r="T95" s="60"/>
+      <c r="U95" s="60"/>
+      <c r="V95" s="60"/>
+      <c r="W95" s="60"/>
+      <c r="X95" s="60"/>
+      <c r="Y95" s="60"/>
+      <c r="Z95" s="60"/>
+      <c r="AA95" s="60"/>
+      <c r="AB95" s="60"/>
+      <c r="AC95" s="60"/>
+      <c r="AD95" s="60"/>
+      <c r="AE95" s="60"/>
+      <c r="AF95" s="60"/>
+      <c r="AG95" s="60"/>
+      <c r="AH95" s="60"/>
+      <c r="AI95" s="60"/>
+      <c r="AJ95" s="60"/>
+      <c r="AK95" s="60"/>
+      <c r="AL95" s="60"/>
+      <c r="AM95" s="58"/>
+      <c r="AN95" s="58"/>
+      <c r="AO95" s="59"/>
+      <c r="AP95" s="59"/>
+      <c r="AQ95" s="59"/>
+      <c r="AR95" s="59"/>
+      <c r="AS95" s="59"/>
+      <c r="AT95" s="59"/>
+    </row>
+    <row r="96" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="58"/>
+      <c r="B96" s="58"/>
+      <c r="C96" s="59"/>
+      <c r="D96" s="60"/>
+      <c r="E96" s="60"/>
+      <c r="F96" s="60"/>
+      <c r="G96" s="59"/>
+      <c r="H96" s="60"/>
+      <c r="I96" s="59"/>
+      <c r="J96" s="60"/>
+      <c r="K96" s="60"/>
+      <c r="L96" s="60"/>
+      <c r="M96" s="60"/>
+      <c r="N96" s="60"/>
+      <c r="O96" s="60"/>
+      <c r="P96" s="60"/>
+      <c r="Q96" s="60"/>
+      <c r="R96" s="60"/>
+      <c r="S96" s="60"/>
+      <c r="T96" s="60"/>
+      <c r="U96" s="60"/>
+      <c r="V96" s="60"/>
+      <c r="W96" s="60"/>
+      <c r="X96" s="60"/>
+      <c r="Y96" s="60"/>
+      <c r="Z96" s="60"/>
+      <c r="AA96" s="60"/>
+      <c r="AB96" s="60"/>
+      <c r="AC96" s="60"/>
+      <c r="AD96" s="60"/>
+      <c r="AE96" s="60"/>
+      <c r="AF96" s="60"/>
+      <c r="AG96" s="60"/>
+      <c r="AH96" s="60"/>
+      <c r="AI96" s="60"/>
+      <c r="AJ96" s="60"/>
+      <c r="AK96" s="60"/>
+      <c r="AL96" s="60"/>
+      <c r="AM96" s="58"/>
+      <c r="AN96" s="58"/>
+      <c r="AO96" s="59"/>
+      <c r="AP96" s="59"/>
+      <c r="AQ96" s="59"/>
+      <c r="AR96" s="59"/>
+      <c r="AS96" s="59"/>
+      <c r="AT96" s="59"/>
+    </row>
+    <row r="97" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="58"/>
+      <c r="B97" s="58"/>
+      <c r="C97" s="59"/>
+      <c r="D97" s="60"/>
+      <c r="E97" s="60"/>
+      <c r="F97" s="60"/>
+      <c r="G97" s="59"/>
+      <c r="H97" s="60"/>
+      <c r="I97" s="59"/>
+      <c r="J97" s="60"/>
+      <c r="K97" s="60"/>
+      <c r="L97" s="60"/>
+      <c r="M97" s="60"/>
+      <c r="N97" s="60"/>
+      <c r="O97" s="60"/>
+      <c r="P97" s="60"/>
+      <c r="Q97" s="60"/>
+      <c r="R97" s="60"/>
+      <c r="S97" s="60"/>
+      <c r="T97" s="60"/>
+      <c r="U97" s="60"/>
+      <c r="V97" s="60"/>
+      <c r="W97" s="60"/>
+      <c r="X97" s="60"/>
+      <c r="Y97" s="60"/>
+      <c r="Z97" s="60"/>
+      <c r="AA97" s="60"/>
+      <c r="AB97" s="60"/>
+      <c r="AC97" s="60"/>
+      <c r="AD97" s="60"/>
+      <c r="AE97" s="60"/>
+      <c r="AF97" s="60"/>
+      <c r="AG97" s="60"/>
+      <c r="AH97" s="60"/>
+      <c r="AI97" s="60"/>
+      <c r="AJ97" s="60"/>
+      <c r="AK97" s="60"/>
+      <c r="AL97" s="60"/>
+      <c r="AM97" s="58"/>
+      <c r="AN97" s="58"/>
+      <c r="AO97" s="59"/>
+      <c r="AP97" s="59"/>
+      <c r="AQ97" s="59"/>
+      <c r="AR97" s="59"/>
+      <c r="AS97" s="59"/>
+      <c r="AT97" s="59"/>
+    </row>
+    <row r="98" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="58"/>
+      <c r="B98" s="58"/>
+      <c r="C98" s="59"/>
+      <c r="D98" s="60"/>
+      <c r="E98" s="60"/>
+      <c r="F98" s="60"/>
+      <c r="G98" s="59"/>
+      <c r="H98" s="60"/>
+      <c r="I98" s="59"/>
+      <c r="J98" s="60"/>
+      <c r="K98" s="60"/>
+      <c r="L98" s="60"/>
+      <c r="M98" s="60"/>
+      <c r="N98" s="60"/>
+      <c r="O98" s="60"/>
+      <c r="P98" s="60"/>
+      <c r="Q98" s="60"/>
+      <c r="R98" s="60"/>
+      <c r="S98" s="60"/>
+      <c r="T98" s="60"/>
+      <c r="U98" s="60"/>
+      <c r="V98" s="60"/>
+      <c r="W98" s="60"/>
+      <c r="X98" s="60"/>
+      <c r="Y98" s="60"/>
+      <c r="Z98" s="60"/>
+      <c r="AA98" s="60"/>
+      <c r="AB98" s="60"/>
+      <c r="AC98" s="60"/>
+      <c r="AD98" s="60"/>
+      <c r="AE98" s="60"/>
+      <c r="AF98" s="60"/>
+      <c r="AG98" s="60"/>
+      <c r="AH98" s="60"/>
+      <c r="AI98" s="60"/>
+      <c r="AJ98" s="60"/>
+      <c r="AK98" s="60"/>
+      <c r="AL98" s="60"/>
+      <c r="AM98" s="58"/>
+      <c r="AN98" s="58"/>
+      <c r="AO98" s="59"/>
+      <c r="AP98" s="59"/>
+      <c r="AQ98" s="59"/>
+      <c r="AR98" s="59"/>
+      <c r="AS98" s="59"/>
+      <c r="AT98" s="59"/>
+    </row>
+    <row r="99" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="58"/>
+      <c r="B99" s="58"/>
+      <c r="C99" s="58"/>
+      <c r="D99" s="58"/>
+      <c r="E99" s="58"/>
+      <c r="F99" s="58"/>
+      <c r="G99" s="58"/>
+      <c r="H99" s="58"/>
+      <c r="I99" s="58"/>
+      <c r="J99" s="58"/>
+      <c r="K99" s="58"/>
+      <c r="L99" s="58"/>
+      <c r="M99" s="58"/>
+      <c r="N99" s="58"/>
+      <c r="O99" s="58"/>
+      <c r="P99" s="58"/>
+      <c r="Q99" s="58"/>
+      <c r="R99" s="58"/>
+      <c r="S99" s="58"/>
+      <c r="T99" s="58"/>
+      <c r="U99" s="58"/>
+      <c r="V99" s="58"/>
+      <c r="W99" s="58"/>
+      <c r="X99" s="58"/>
+      <c r="Y99" s="58"/>
+      <c r="Z99" s="58"/>
+      <c r="AA99" s="58"/>
+      <c r="AB99" s="58"/>
+      <c r="AC99" s="58"/>
+      <c r="AD99" s="58"/>
+      <c r="AE99" s="58"/>
+      <c r="AF99" s="58"/>
+      <c r="AG99" s="58"/>
+      <c r="AH99" s="58"/>
+      <c r="AI99" s="58"/>
+      <c r="AJ99" s="58"/>
+      <c r="AK99" s="58"/>
+      <c r="AL99" s="58"/>
+      <c r="AM99" s="58"/>
+      <c r="AN99" s="58"/>
+      <c r="AO99" s="59"/>
+      <c r="AP99" s="59"/>
+      <c r="AQ99" s="59"/>
+      <c r="AR99" s="59"/>
+      <c r="AS99" s="59"/>
+      <c r="AT99" s="59"/>
+    </row>
+    <row r="100" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="59"/>
+      <c r="B100" s="58"/>
+      <c r="C100" s="59"/>
+      <c r="D100" s="59"/>
+      <c r="E100" s="59"/>
+      <c r="F100" s="59"/>
+      <c r="G100" s="59"/>
+      <c r="H100" s="59"/>
+      <c r="I100" s="59"/>
+      <c r="J100" s="59"/>
+      <c r="K100" s="59"/>
+      <c r="L100" s="59"/>
+      <c r="M100" s="59"/>
+      <c r="N100" s="59"/>
+      <c r="O100" s="59"/>
+      <c r="P100" s="59"/>
+      <c r="Q100" s="59"/>
+      <c r="R100" s="59"/>
+      <c r="S100" s="59"/>
+      <c r="T100" s="59"/>
+      <c r="U100" s="59"/>
+      <c r="V100" s="59"/>
+      <c r="W100" s="59"/>
+      <c r="X100" s="59"/>
+      <c r="Y100" s="59"/>
+      <c r="Z100" s="59"/>
+      <c r="AA100" s="59"/>
+      <c r="AB100" s="59"/>
+      <c r="AC100" s="59"/>
+      <c r="AD100" s="59"/>
+      <c r="AE100" s="59"/>
+      <c r="AF100" s="59"/>
+      <c r="AG100" s="59"/>
+      <c r="AH100" s="59"/>
+      <c r="AI100" s="59"/>
+      <c r="AJ100" s="59"/>
+      <c r="AK100" s="59"/>
+      <c r="AL100" s="59"/>
+      <c r="AM100" s="59"/>
+      <c r="AN100" s="59"/>
+      <c r="AO100" s="59"/>
+      <c r="AP100" s="59"/>
+      <c r="AQ100" s="59"/>
+      <c r="AR100" s="59"/>
+      <c r="AS100" s="59"/>
+      <c r="AT100" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="15">
